--- a/Model/BayesLSTM/Univariate/result/Service/AUS.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>63.21930694580078</v>
+        <v>64.15310668945312</v>
       </c>
       <c r="C2" t="n">
-        <v>62.42262268066406</v>
+        <v>63.41295623779297</v>
       </c>
       <c r="D2" t="n">
-        <v>64.0159912109375</v>
+        <v>64.89325714111328</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>63.3442497253418</v>
+        <v>64.63452911376953</v>
       </c>
       <c r="C3" t="n">
-        <v>62.44490051269531</v>
+        <v>63.7047004699707</v>
       </c>
       <c r="D3" t="n">
-        <v>64.24359893798828</v>
+        <v>65.56435394287109</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>63.4247932434082</v>
+        <v>64.80271148681641</v>
       </c>
       <c r="C4" t="n">
-        <v>62.44840240478516</v>
+        <v>63.9979133605957</v>
       </c>
       <c r="D4" t="n">
-        <v>64.40118408203125</v>
+        <v>65.60751342773438</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>63.59932708740234</v>
+        <v>64.69129943847656</v>
       </c>
       <c r="C5" t="n">
-        <v>62.61672973632812</v>
+        <v>63.82405090332031</v>
       </c>
       <c r="D5" t="n">
-        <v>64.58192443847656</v>
+        <v>65.55854797363281</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>63.62881469726562</v>
+        <v>64.56066131591797</v>
       </c>
       <c r="C6" t="n">
-        <v>62.59075927734375</v>
+        <v>63.66368865966797</v>
       </c>
       <c r="D6" t="n">
-        <v>64.6668701171875</v>
+        <v>65.45763397216797</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>63.6661262512207</v>
+        <v>64.63571929931641</v>
       </c>
       <c r="C7" t="n">
-        <v>62.55267333984375</v>
+        <v>63.44178771972656</v>
       </c>
       <c r="D7" t="n">
-        <v>64.77957916259766</v>
+        <v>65.82965087890625</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>63.60306930541992</v>
+        <v>64.46717834472656</v>
       </c>
       <c r="C8" t="n">
-        <v>62.38299942016602</v>
+        <v>63.40901565551758</v>
       </c>
       <c r="D8" t="n">
-        <v>64.82314300537109</v>
+        <v>65.52534484863281</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>63.68095779418945</v>
+        <v>64.35194396972656</v>
       </c>
       <c r="C9" t="n">
-        <v>62.66701889038086</v>
+        <v>63.18626022338867</v>
       </c>
       <c r="D9" t="n">
-        <v>64.69490051269531</v>
+        <v>65.51763153076172</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>63.79983520507812</v>
+        <v>64.33975982666016</v>
       </c>
       <c r="C10" t="n">
-        <v>62.57877349853516</v>
+        <v>63.22664642333984</v>
       </c>
       <c r="D10" t="n">
-        <v>65.02089691162109</v>
+        <v>65.45287322998047</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>63.81050872802734</v>
+        <v>64.32972717285156</v>
       </c>
       <c r="C11" t="n">
-        <v>63.07408905029297</v>
+        <v>63.0029182434082</v>
       </c>
       <c r="D11" t="n">
-        <v>64.54692840576172</v>
+        <v>65.65653991699219</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>63.77327728271484</v>
+        <v>64.41597747802734</v>
       </c>
       <c r="C12" t="n">
-        <v>63.07827758789062</v>
+        <v>62.84391403198242</v>
       </c>
       <c r="D12" t="n">
-        <v>64.46827697753906</v>
+        <v>65.98804473876953</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>63.7485466003418</v>
+        <v>64.36562347412109</v>
       </c>
       <c r="C13" t="n">
-        <v>63.02202224731445</v>
+        <v>63.01627731323242</v>
       </c>
       <c r="D13" t="n">
-        <v>64.47507476806641</v>
+        <v>65.7149658203125</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>63.71851348876953</v>
+        <v>64.40155029296875</v>
       </c>
       <c r="C14" t="n">
-        <v>62.79586791992188</v>
+        <v>63.12108993530273</v>
       </c>
       <c r="D14" t="n">
-        <v>64.64115905761719</v>
+        <v>65.68201446533203</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>63.70668792724609</v>
+        <v>64.47638702392578</v>
       </c>
       <c r="C15" t="n">
-        <v>62.84992599487305</v>
+        <v>63.23804092407227</v>
       </c>
       <c r="D15" t="n">
-        <v>64.56344604492188</v>
+        <v>65.71472930908203</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>63.78105926513672</v>
+        <v>64.46381378173828</v>
       </c>
       <c r="C16" t="n">
-        <v>62.96919250488281</v>
+        <v>63.06454086303711</v>
       </c>
       <c r="D16" t="n">
-        <v>64.59292602539062</v>
+        <v>65.86308288574219</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>63.72527313232422</v>
+        <v>64.30677032470703</v>
       </c>
       <c r="C17" t="n">
-        <v>63.01239395141602</v>
+        <v>63.19303894042969</v>
       </c>
       <c r="D17" t="n">
-        <v>64.43814849853516</v>
+        <v>65.42050170898438</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>63.81951141357422</v>
+        <v>64.15439605712891</v>
       </c>
       <c r="C18" t="n">
-        <v>62.71989059448242</v>
+        <v>62.95529937744141</v>
       </c>
       <c r="D18" t="n">
-        <v>64.91912841796875</v>
+        <v>65.35349273681641</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>63.75809478759766</v>
+        <v>64.09539031982422</v>
       </c>
       <c r="C19" t="n">
-        <v>62.87870788574219</v>
+        <v>63.1564826965332</v>
       </c>
       <c r="D19" t="n">
-        <v>64.63748168945312</v>
+        <v>65.0343017578125</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>63.76346969604492</v>
+        <v>63.99672317504883</v>
       </c>
       <c r="C20" t="n">
-        <v>62.96349716186523</v>
+        <v>62.90800094604492</v>
       </c>
       <c r="D20" t="n">
-        <v>64.56344604492188</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>63.74571990966797</v>
-      </c>
-      <c r="C21" t="n">
-        <v>62.51419067382812</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64.97724914550781</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>63.85784912109375</v>
-      </c>
-      <c r="C22" t="n">
-        <v>62.55867004394531</v>
-      </c>
-      <c r="D22" t="n">
-        <v>65.15702819824219</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>63.70061492919922</v>
-      </c>
-      <c r="C23" t="n">
-        <v>62.77280426025391</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64.62842559814453</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>63.77458953857422</v>
-      </c>
-      <c r="C24" t="n">
-        <v>62.80564117431641</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64.74353790283203</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>63.85323333740234</v>
-      </c>
-      <c r="C25" t="n">
-        <v>63.20063018798828</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64.50583648681641</v>
+        <v>65.08544158935547</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>64.18964576721191</v>
+        <v>64.11870574951172</v>
       </c>
       <c r="C2" t="n">
-        <v>63.62163138244509</v>
+        <v>63.07855224609375</v>
       </c>
       <c r="D2" t="n">
-        <v>64.75766015197874</v>
+        <v>65.15885925292969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>64.67216911315919</v>
+        <v>64.51226806640625</v>
       </c>
       <c r="C3" t="n">
-        <v>63.49147983586406</v>
+        <v>63.36262893676758</v>
       </c>
       <c r="D3" t="n">
-        <v>65.85285839045432</v>
+        <v>65.66191101074219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.86474456787109</v>
+        <v>64.40619659423828</v>
       </c>
       <c r="C4" t="n">
-        <v>63.32898020643536</v>
+        <v>63.33113479614258</v>
       </c>
       <c r="D4" t="n">
-        <v>64.40050892930682</v>
+        <v>65.48126220703125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>64.15242652893066</v>
+        <v>64.50880432128906</v>
       </c>
       <c r="C5" t="n">
-        <v>62.65383439211181</v>
+        <v>63.38593673706055</v>
       </c>
       <c r="D5" t="n">
-        <v>65.6510186657495</v>
+        <v>65.63166809082031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>63.63618431091309</v>
+        <v>64.29655456542969</v>
       </c>
       <c r="C6" t="n">
-        <v>62.59931445897247</v>
+        <v>63.31358337402344</v>
       </c>
       <c r="D6" t="n">
-        <v>64.6730541628537</v>
+        <v>65.27952575683594</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>63.75620269775391</v>
+        <v>63.35455322265625</v>
       </c>
       <c r="C2" t="n">
-        <v>62.48151397705078</v>
+        <v>62.4192008972168</v>
       </c>
       <c r="D2" t="n">
-        <v>65.03089141845703</v>
+        <v>64.28990936279297</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>63.92452239990234</v>
+        <v>63.58454513549805</v>
       </c>
       <c r="C3" t="n">
-        <v>62.77251434326172</v>
+        <v>62.57973098754883</v>
       </c>
       <c r="D3" t="n">
-        <v>65.07653045654297</v>
+        <v>64.58935546875</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>63.69658279418945</v>
+        <v>63.72431564331055</v>
       </c>
       <c r="C4" t="n">
-        <v>62.60027694702148</v>
+        <v>62.65468978881836</v>
       </c>
       <c r="D4" t="n">
-        <v>64.79289245605469</v>
+        <v>64.7939453125</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>63.44366455078125</v>
+        <v>63.54937744140625</v>
       </c>
       <c r="C5" t="n">
-        <v>62.44332504272461</v>
+        <v>62.76870727539062</v>
       </c>
       <c r="D5" t="n">
-        <v>64.44400024414062</v>
+        <v>64.33004760742188</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>63.41950225830078</v>
+        <v>63.63480758666992</v>
       </c>
       <c r="C6" t="n">
-        <v>62.34885406494141</v>
+        <v>62.9368782043457</v>
       </c>
       <c r="D6" t="n">
-        <v>64.49015045166016</v>
+        <v>64.33274078369141</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>63.51480102539062</v>
+        <v>63.5082893371582</v>
       </c>
       <c r="C7" t="n">
-        <v>62.39627838134766</v>
+        <v>62.63233947753906</v>
       </c>
       <c r="D7" t="n">
-        <v>64.63332366943359</v>
+        <v>64.38423919677734</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>63.51509857177734</v>
+        <v>63.609619140625</v>
       </c>
       <c r="C8" t="n">
-        <v>62.1353645324707</v>
+        <v>62.68901062011719</v>
       </c>
       <c r="D8" t="n">
-        <v>64.89482879638672</v>
+        <v>64.53022766113281</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>63.58747100830078</v>
+        <v>63.5931510925293</v>
       </c>
       <c r="C9" t="n">
-        <v>62.59634399414062</v>
+        <v>62.73025131225586</v>
       </c>
       <c r="D9" t="n">
-        <v>64.57859802246094</v>
+        <v>64.45604705810547</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>63.72233200073242</v>
+        <v>63.55517578125</v>
       </c>
       <c r="C10" t="n">
-        <v>62.77457427978516</v>
+        <v>62.85715866088867</v>
       </c>
       <c r="D10" t="n">
-        <v>64.67008972167969</v>
+        <v>64.25319671630859</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>63.65739822387695</v>
+        <v>63.81514739990234</v>
       </c>
       <c r="C11" t="n">
-        <v>62.87515640258789</v>
+        <v>63.01876449584961</v>
       </c>
       <c r="D11" t="n">
-        <v>64.43964385986328</v>
+        <v>64.61153411865234</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>63.62810134887695</v>
+        <v>63.65610885620117</v>
       </c>
       <c r="C12" t="n">
-        <v>62.514892578125</v>
+        <v>62.72141265869141</v>
       </c>
       <c r="D12" t="n">
-        <v>64.74131011962891</v>
+        <v>64.59080505371094</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>63.74421310424805</v>
+        <v>63.70602416992188</v>
       </c>
       <c r="C13" t="n">
-        <v>62.81461715698242</v>
+        <v>62.84784317016602</v>
       </c>
       <c r="D13" t="n">
-        <v>64.67381286621094</v>
+        <v>64.56420135498047</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>63.81989669799805</v>
+        <v>63.73503875732422</v>
       </c>
       <c r="C14" t="n">
-        <v>62.91058731079102</v>
+        <v>62.91786956787109</v>
       </c>
       <c r="D14" t="n">
-        <v>64.72920227050781</v>
+        <v>64.55220794677734</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>63.77762603759766</v>
+        <v>63.56709671020508</v>
       </c>
       <c r="C15" t="n">
-        <v>62.59087753295898</v>
+        <v>62.7783317565918</v>
       </c>
       <c r="D15" t="n">
-        <v>64.96437835693359</v>
+        <v>64.35585784912109</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>63.68882369995117</v>
+        <v>63.65679931640625</v>
       </c>
       <c r="C16" t="n">
-        <v>62.44985961914062</v>
+        <v>62.69178771972656</v>
       </c>
       <c r="D16" t="n">
-        <v>64.92778778076172</v>
+        <v>64.62181091308594</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>63.77259063720703</v>
+        <v>63.6619758605957</v>
       </c>
       <c r="C17" t="n">
-        <v>62.78472137451172</v>
+        <v>62.92775726318359</v>
       </c>
       <c r="D17" t="n">
-        <v>64.76045989990234</v>
+        <v>64.39619445800781</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>63.723876953125</v>
+        <v>63.76186370849609</v>
       </c>
       <c r="C18" t="n">
-        <v>62.75357055664062</v>
+        <v>62.70529937744141</v>
       </c>
       <c r="D18" t="n">
-        <v>64.69418334960938</v>
+        <v>64.81842803955078</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>63.70827484130859</v>
+        <v>63.61740875244141</v>
       </c>
       <c r="C19" t="n">
-        <v>62.73360824584961</v>
+        <v>62.60346984863281</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68293762207031</v>
+        <v>64.63134765625</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>63.70133209228516</v>
+        <v>63.63520431518555</v>
       </c>
       <c r="C20" t="n">
-        <v>62.79933166503906</v>
+        <v>62.7288703918457</v>
       </c>
       <c r="D20" t="n">
-        <v>64.60333251953125</v>
+        <v>64.54154205322266</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>63.60575485229492</v>
+        <v>63.7440185546875</v>
       </c>
       <c r="C21" t="n">
-        <v>62.31162261962891</v>
+        <v>62.62117767333984</v>
       </c>
       <c r="D21" t="n">
-        <v>64.89988708496094</v>
+        <v>64.86685943603516</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>63.61765670776367</v>
+        <v>63.62405395507812</v>
       </c>
       <c r="C22" t="n">
-        <v>62.72904205322266</v>
+        <v>62.79418182373047</v>
       </c>
       <c r="D22" t="n">
-        <v>64.50627136230469</v>
+        <v>64.45392608642578</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>63.55762481689453</v>
+        <v>63.58745193481445</v>
       </c>
       <c r="C23" t="n">
-        <v>62.63264846801758</v>
+        <v>62.29267883300781</v>
       </c>
       <c r="D23" t="n">
-        <v>64.48259735107422</v>
+        <v>64.88222503662109</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>63.65266036987305</v>
+        <v>63.8509635925293</v>
       </c>
       <c r="C24" t="n">
-        <v>62.78366088867188</v>
+        <v>62.9620246887207</v>
       </c>
       <c r="D24" t="n">
-        <v>64.52165985107422</v>
+        <v>64.73989868164062</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>63.8365478515625</v>
+        <v>63.78035354614258</v>
       </c>
       <c r="C25" t="n">
-        <v>62.93164443969727</v>
+        <v>63.15371322631836</v>
       </c>
       <c r="D25" t="n">
-        <v>64.74144744873047</v>
+        <v>64.40699005126953</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>64.33426094055176</v>
+        <v>63.35579109191895</v>
       </c>
       <c r="C2" t="n">
-        <v>63.74420813173087</v>
+        <v>62.93269670217212</v>
       </c>
       <c r="D2" t="n">
-        <v>64.92431374937264</v>
+        <v>63.77888548166577</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>64.27165260314942</v>
+        <v>64.70885162353515</v>
       </c>
       <c r="C3" t="n">
-        <v>63.70376146076549</v>
+        <v>63.73613956117473</v>
       </c>
       <c r="D3" t="n">
-        <v>64.83954374553335</v>
+        <v>65.68156368589558</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>65.68606567382812</v>
+        <v>64.29080390930176</v>
       </c>
       <c r="C4" t="n">
-        <v>64.25485977969666</v>
+        <v>63.63865767062197</v>
       </c>
       <c r="D4" t="n">
-        <v>67.11727156795959</v>
+        <v>64.94295014798155</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>64.67766799926758</v>
+        <v>64.28261947631836</v>
       </c>
       <c r="C5" t="n">
-        <v>63.89843549665466</v>
+        <v>63.66650483782608</v>
       </c>
       <c r="D5" t="n">
-        <v>65.45690050188051</v>
+        <v>64.89873411481064</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>63.60693740844727</v>
+        <v>63.40250778198242</v>
       </c>
       <c r="C6" t="n">
-        <v>62.51106144562264</v>
+        <v>62.75882858904954</v>
       </c>
       <c r="D6" t="n">
-        <v>64.70281337127189</v>
+        <v>64.0461869749153</v>
       </c>
     </row>
   </sheetData>
